--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E37AD72-630D-4EB5-9A63-1042A84AE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DE293-DAEA-4276-8050-F30427DFA707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
+    <sheet name="Street Estimates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Ticker: GS</t>
   </si>
@@ -64,9 +65,6 @@
     <t>Operating Income</t>
   </si>
   <si>
-    <t>Net Interest Expenses</t>
-  </si>
-  <si>
     <t>EBT, Unusual Items</t>
   </si>
   <si>
@@ -85,12 +83,6 @@
     <t>Diluted EPS</t>
   </si>
   <si>
-    <t>EBIT</t>
-  </si>
-  <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
     <t>Historical</t>
   </si>
   <si>
@@ -107,6 +99,93 @@
   </si>
   <si>
     <t>Selling &amp; Marketing Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stock-Based Comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Change in Accounts Receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Change in Other Net Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Operating Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cash from Operations</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Cash Acquisitions</t>
+  </si>
+  <si>
+    <t>Other Investing Activities</t>
+  </si>
+  <si>
+    <t>Cash from Investing</t>
+  </si>
+  <si>
+    <t>Dividends Paid</t>
+  </si>
+  <si>
+    <t>Long-Term Debt Issued</t>
+  </si>
+  <si>
+    <t>Long-Term Debt Repaid</t>
+  </si>
+  <si>
+    <t>Repurchase of Common Stock</t>
+  </si>
+  <si>
+    <t>Cash from Financing</t>
+  </si>
+  <si>
+    <t>Other Financing Activities</t>
+  </si>
+  <si>
+    <t>Begininng Cash</t>
+  </si>
+  <si>
+    <t>Ending Cash</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Cash Interest Paid</t>
+  </si>
+  <si>
+    <t>Current Price:</t>
+  </si>
+  <si>
+    <t>EBIT:</t>
+  </si>
+  <si>
+    <t>High Consensus</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Tax:</t>
+  </si>
+  <si>
+    <t>D&amp;A:</t>
+  </si>
+  <si>
+    <t>CapEx:</t>
+  </si>
+  <si>
+    <t>NWC:</t>
   </si>
 </sst>
 </file>
@@ -117,7 +196,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +208,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -286,44 +372,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+      <color rgb="FF000099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,7 +477,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Revenue</a:t>
+              <a:t>Goldman Sachs Revenue Forecast</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -786,6 +893,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -902,7 +1034,417 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Goldman Operating Income</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Data and Projections'!$E$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Data and Projections'!$E$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\(#,##0\)_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E55-4246-8B60-113048815370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1056616304"/>
+        <c:axId val="1056615056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1056616304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056615056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1056615056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056616304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1445,18 +1987,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1478,6 +2523,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2D7350-F377-1238-2396-817C423CDFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1783,13 +2864,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002A1BE5-3274-4D75-A10D-F4A6E7BE869D}">
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1806,20 +2890,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="E3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
@@ -1880,115 +2964,119 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="17">
         <v>32073</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="18">
         <v>35942</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="18">
         <v>35481</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="18">
         <v>41462</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="18">
         <v>58982</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="21">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="22">
         <v>0.121</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="22">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="22">
         <v>0.16900000000000001</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="22">
         <v>0.42299999999999999</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="26">
         <v>49867</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <v>53733</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <v>57427</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="28">
         <v>51203</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <v>52956</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="27">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17">
         <v>47343</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="29">
         <v>49688</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="29">
         <v>51139</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="30">
         <v>51203</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="29">
         <v>52956</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>22</v>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="33">
         <v>44812</v>
       </c>
@@ -2006,107 +3094,123 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="26">
         <v>-588</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>-740</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>-739</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>-401</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <v>-553</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="27">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="17">
         <v>-1165</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="39">
         <v>-1214</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="39">
         <v>-1316</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="29">
         <v>-1306</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="29">
         <v>-1648</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="17">
         <v>-19188</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="18">
         <v>-21507</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="18">
         <v>-22843</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="18">
         <v>-27276</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="18">
         <v>-29737</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="17">
         <v>-20941</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="18">
         <v>-23461</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="18">
         <v>-24898</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="18">
         <v>-28983</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="18">
         <v>-31938</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3"/>
@@ -2126,11 +3230,11 @@
       <c r="I16" s="34">
         <v>27044</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E17" s="5"/>
@@ -2142,11 +3246,21 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="E18" s="26">
+        <v>11132</v>
+      </c>
+      <c r="F18" s="27">
+        <v>12481</v>
+      </c>
+      <c r="G18" s="27">
+        <v>10583</v>
+      </c>
+      <c r="H18" s="27">
+        <v>12479</v>
+      </c>
+      <c r="I18" s="27">
+        <v>27044</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -2157,107 +3271,183 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="17">
+        <v>-6846</v>
+      </c>
+      <c r="F19" s="29">
+        <v>-2022</v>
+      </c>
+      <c r="G19" s="29">
+        <v>-2117</v>
+      </c>
+      <c r="H19" s="29">
+        <v>-3020</v>
+      </c>
+      <c r="I19" s="29">
+        <v>-5409</v>
+      </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="33">
+        <v>4286</v>
+      </c>
+      <c r="F20" s="34">
+        <v>10459</v>
+      </c>
+      <c r="G20" s="34">
+        <v>8466</v>
+      </c>
+      <c r="H20" s="34">
+        <v>9459</v>
+      </c>
+      <c r="I20" s="34">
+        <v>21635</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="42">
+        <v>4286</v>
+      </c>
+      <c r="F22" s="43">
+        <v>10459</v>
+      </c>
+      <c r="G22" s="43">
+        <v>8466</v>
+      </c>
+      <c r="H22" s="43">
+        <v>9459</v>
+      </c>
+      <c r="I22" s="43">
+        <v>21635</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="44">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F24" s="45">
+        <v>25.53</v>
+      </c>
+      <c r="G24" s="45">
+        <v>21.18</v>
+      </c>
+      <c r="H24" s="45">
+        <v>24.94</v>
+      </c>
+      <c r="I24" s="45">
+        <v>60.25</v>
+      </c>
+      <c r="J24" s="37">
+        <v>34.39</v>
+      </c>
+      <c r="K24" s="38">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="L24" s="38">
+        <v>38.03</v>
+      </c>
+      <c r="M24" s="38">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N24" s="38">
+        <v>39.58</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="46">
+        <v>9.01</v>
+      </c>
+      <c r="F25" s="47">
+        <v>25.27</v>
+      </c>
+      <c r="G25" s="47">
+        <v>21.03</v>
+      </c>
+      <c r="H25" s="47">
+        <v>24.74</v>
+      </c>
+      <c r="I25" s="47">
+        <v>59.45</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>16</v>
+      <c r="B28" s="48" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="E28" s="26">
+        <f>E22</f>
+        <v>4286</v>
+      </c>
+      <c r="F28" s="27">
+        <f>F22</f>
+        <v>10459</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" ref="G28:I28" si="0">G22</f>
+        <v>8466</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="0"/>
+        <v>9459</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="0"/>
+        <v>21635</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -2265,21 +3455,510 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1152</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1328</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1704</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1902</v>
+      </c>
+      <c r="I29" s="18">
+        <v>2015</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1812</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1850</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2120</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1985</v>
+      </c>
+      <c r="I30" s="18">
+        <v>2553</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="17">
+        <v>-26981</v>
+      </c>
+      <c r="F31" s="18">
+        <v>6416</v>
+      </c>
+      <c r="G31" s="18">
+        <v>-7693</v>
+      </c>
+      <c r="H31" s="18">
+        <v>-30895</v>
+      </c>
+      <c r="I31" s="18">
+        <v>21971</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2870</v>
+      </c>
+      <c r="F32" s="18">
+        <v>22313</v>
+      </c>
+      <c r="G32" s="18">
+        <v>87344</v>
+      </c>
+      <c r="H32" s="18">
+        <v>35027</v>
+      </c>
+      <c r="I32" s="18">
+        <v>-62642</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="17">
+        <v>-3628</v>
+      </c>
+      <c r="F33" s="18">
+        <v>-25802</v>
+      </c>
+      <c r="G33" s="18">
+        <v>-68073</v>
+      </c>
+      <c r="H33" s="18">
+        <v>-31206</v>
+      </c>
+      <c r="I33" s="18">
+        <v>15389</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="33">
+        <v>-20489</v>
+      </c>
+      <c r="F34" s="34">
+        <v>16564</v>
+      </c>
+      <c r="G34" s="34">
+        <v>23868</v>
+      </c>
+      <c r="H34" s="34">
+        <v>-13728</v>
+      </c>
+      <c r="I34" s="34">
+        <v>921</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="26">
+        <v>-3184</v>
+      </c>
+      <c r="F36" s="27">
+        <v>-7982</v>
+      </c>
+      <c r="G36" s="27">
+        <v>-8443</v>
+      </c>
+      <c r="H36" s="27">
+        <v>-6309</v>
+      </c>
+      <c r="I36" s="27">
+        <v>-4667</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="17">
+        <v>-2383</v>
+      </c>
+      <c r="F37" s="29">
+        <v>-162</v>
+      </c>
+      <c r="G37" s="29">
+        <v>-803</v>
+      </c>
+      <c r="H37" s="29">
+        <v>-231</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="17">
+        <v>-20810</v>
+      </c>
+      <c r="F38" s="29">
+        <v>-10676</v>
+      </c>
+      <c r="G38" s="29">
+        <v>-14990</v>
+      </c>
+      <c r="H38" s="29">
+        <v>-27816</v>
+      </c>
+      <c r="I38" s="29">
+        <v>-25798</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="33">
+        <v>-26377</v>
+      </c>
+      <c r="F39" s="34">
+        <v>-18820</v>
+      </c>
+      <c r="G39" s="34">
+        <v>-24236</v>
+      </c>
+      <c r="H39" s="34">
+        <v>-34356</v>
+      </c>
+      <c r="I39" s="34">
+        <v>-30465</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="26">
+        <v>-1769</v>
+      </c>
+      <c r="F41" s="27">
+        <v>-1810</v>
+      </c>
+      <c r="G41" s="27">
+        <v>-2104</v>
+      </c>
+      <c r="H41" s="27">
+        <v>-2336</v>
+      </c>
+      <c r="I41" s="27">
+        <v>-2725</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="17">
+        <v>65748</v>
+      </c>
+      <c r="F42" s="29">
+        <v>50923</v>
+      </c>
+      <c r="G42" s="29">
+        <v>29638</v>
+      </c>
+      <c r="H42" s="29">
+        <v>55323</v>
+      </c>
+      <c r="I42" s="29">
+        <v>97512</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="17">
+        <v>-35711</v>
+      </c>
+      <c r="F43" s="29">
+        <v>-46760</v>
+      </c>
+      <c r="G43" s="29">
+        <v>-51610</v>
+      </c>
+      <c r="H43" s="29">
+        <v>-59188</v>
+      </c>
+      <c r="I43" s="29">
+        <v>-59198</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="17">
+        <v>-8995</v>
+      </c>
+      <c r="F44" s="29">
+        <v>-4412</v>
+      </c>
+      <c r="G44" s="29">
+        <v>-6080</v>
+      </c>
+      <c r="H44" s="29">
+        <v>-2758</v>
+      </c>
+      <c r="I44" s="29">
+        <v>-6185</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="17">
+        <v>15933</v>
+      </c>
+      <c r="F45" s="29">
+        <v>24811</v>
+      </c>
+      <c r="G45" s="29">
+        <v>33523</v>
+      </c>
+      <c r="H45" s="29">
+        <v>79339</v>
+      </c>
+      <c r="I45" s="29">
+        <v>105334</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="33">
+        <v>35206</v>
+      </c>
+      <c r="F46" s="34">
+        <v>22752</v>
+      </c>
+      <c r="G46" s="34">
+        <v>3367</v>
+      </c>
+      <c r="H46" s="34">
+        <v>70380</v>
+      </c>
+      <c r="I46" s="34">
+        <v>134738</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="26">
+        <v>121711</v>
+      </c>
+      <c r="F48" s="27">
+        <v>110051</v>
+      </c>
+      <c r="G48" s="27">
+        <v>130547</v>
+      </c>
+      <c r="H48" s="27">
+        <v>133546</v>
+      </c>
+      <c r="I48" s="27">
+        <v>155842</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="33">
+        <v>110051</v>
+      </c>
+      <c r="F49" s="34">
+        <v>130547</v>
+      </c>
+      <c r="G49" s="34">
+        <v>133546</v>
+      </c>
+      <c r="H49" s="34">
+        <v>155842</v>
+      </c>
+      <c r="I49" s="34">
+        <v>261036</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="26">
+        <v>-23673</v>
+      </c>
+      <c r="F51" s="27">
+        <v>8582</v>
+      </c>
+      <c r="G51" s="27">
+        <v>15425</v>
+      </c>
+      <c r="H51" s="27">
+        <v>-20037</v>
+      </c>
+      <c r="I51" s="27">
+        <v>-3746</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="33">
+        <v>11174</v>
+      </c>
+      <c r="F52" s="34">
+        <v>16721</v>
+      </c>
+      <c r="G52" s="34">
+        <v>18645</v>
+      </c>
+      <c r="H52" s="34">
+        <v>9091</v>
+      </c>
+      <c r="I52" s="34">
+        <v>5521</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2290,4 +3969,271 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAC15C-87F3-4E14-AAD1-7E05F30C7757}">
+  <dimension ref="B1:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2024</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2025</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="J7" s="5">
+        <v>17805</v>
+      </c>
+      <c r="K7">
+        <v>19869</v>
+      </c>
+      <c r="L7">
+        <v>21699</v>
+      </c>
+      <c r="M7">
+        <v>19969</v>
+      </c>
+      <c r="N7">
+        <v>20653</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="J8" s="5">
+        <v>17259</v>
+      </c>
+      <c r="K8">
+        <v>17983</v>
+      </c>
+      <c r="L8">
+        <v>20349</v>
+      </c>
+      <c r="M8">
+        <v>19969</v>
+      </c>
+      <c r="N8">
+        <v>20653</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="J9" s="5">
+        <v>15217</v>
+      </c>
+      <c r="K9">
+        <v>16486</v>
+      </c>
+      <c r="L9">
+        <v>17940</v>
+      </c>
+      <c r="M9">
+        <v>19969</v>
+      </c>
+      <c r="N9">
+        <v>20653</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="E3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DE293-DAEA-4276-8050-F30427DFA707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF751B-3DE3-46A4-BB60-9A147CDCDC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
     <sheet name="Street Estimates" sheetId="2" r:id="rId2"/>
+    <sheet name="DCF Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>Ticker: GS</t>
   </si>
@@ -186,17 +187,130 @@
   </si>
   <si>
     <t>NWC:</t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>EV / EBITDA</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Debt Value</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>WACC:</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>D/D+E</t>
+  </si>
+  <si>
+    <t>E/D+E</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Perpetuity Growth</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Discounting</t>
+  </si>
+  <si>
+    <t>Discount Factor</t>
+  </si>
+  <si>
+    <t>PV of FCF</t>
+  </si>
+  <si>
+    <t>PV of TV</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value to Equity Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>Long-term Debt</t>
+  </si>
+  <si>
+    <t>Short-term Debt</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +329,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -356,10 +477,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -409,6 +531,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,10 +550,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,6 +1553,376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Goldman Net Income to Shareholders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Data and Projections'!$E$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Data and Projections'!$E$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\(#,##0\)_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BFE-4CED-9B2F-A4BAC0D2D0B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1376890992"/>
+        <c:axId val="1876211056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1376890992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876211056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876211056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376890992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1484,6 +2003,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1988,6 +2547,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2559,6 +3621,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A83B8F-6C88-3F7A-B5DB-62638207F32B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2866,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002A1BE5-3274-4D75-A10D-F4A6E7BE869D}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,20 +3988,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="49" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
@@ -3973,19 +5071,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAC15C-87F3-4E14-AAD1-7E05F30C7757}">
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3994,28 +5099,28 @@
       <c r="E2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="49" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
       <c r="J4" s="5">
         <v>1</v>
@@ -4033,12 +5138,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="6">
         <v>2017</v>
       </c>
@@ -4070,164 +5175,310 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="18">
+        <v>27044</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="J7" s="5">
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="17">
         <v>17805</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="18">
         <v>19869</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="18">
         <v>21699</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="18">
         <v>19969</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="18">
         <v>20653</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="J8" s="5">
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="17">
         <v>17259</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="18">
         <v>17983</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="18">
         <v>20349</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="18">
         <v>19969</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="18">
         <v>20653</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="J9" s="5">
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="17">
         <v>15217</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="18">
         <v>16486</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="18">
         <v>17940</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="18">
         <v>19969</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="18">
         <v>20653</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="42">
+        <v>6846</v>
+      </c>
+      <c r="F10" s="43">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="43">
+        <v>2117</v>
+      </c>
+      <c r="H10" s="43">
+        <v>3020</v>
+      </c>
+      <c r="I10" s="43">
+        <v>5409</v>
+      </c>
+      <c r="J10" s="51">
+        <f>22%*J8</f>
+        <v>3796.98</v>
+      </c>
+      <c r="K10" s="52">
+        <f>22%*K8</f>
+        <v>3956.26</v>
+      </c>
+      <c r="L10" s="52">
+        <f t="shared" ref="L10:N10" si="0">22%*L8</f>
+        <v>4476.78</v>
+      </c>
+      <c r="M10" s="52">
+        <f t="shared" si="0"/>
+        <v>4393.18</v>
+      </c>
+      <c r="N10" s="52">
+        <f t="shared" si="0"/>
+        <v>4543.66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="42">
+        <v>1152</v>
+      </c>
+      <c r="F11" s="43">
+        <v>1328</v>
+      </c>
+      <c r="G11" s="43">
+        <v>1704</v>
+      </c>
+      <c r="H11" s="43">
+        <v>1902</v>
+      </c>
+      <c r="I11" s="43">
+        <v>2015</v>
+      </c>
+      <c r="J11" s="42">
+        <v>1920</v>
+      </c>
+      <c r="K11" s="52">
+        <f>1.01*J11</f>
+        <v>1939.2</v>
+      </c>
+      <c r="L11" s="52">
+        <f t="shared" ref="L11:N11" si="1">1.01*K11</f>
+        <v>1958.5920000000001</v>
+      </c>
+      <c r="M11" s="52">
+        <f t="shared" si="1"/>
+        <v>1978.1779200000001</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" si="1"/>
+        <v>1997.9596992000002</v>
+      </c>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="26">
+        <v>3184</v>
+      </c>
+      <c r="F12" s="27">
+        <v>7982</v>
+      </c>
+      <c r="G12" s="27">
+        <v>8443</v>
+      </c>
+      <c r="H12" s="27">
+        <v>6309</v>
+      </c>
+      <c r="I12" s="27">
+        <v>4667</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="53">
+        <f>1.387*I12</f>
+        <v>6473.1289999999999</v>
+      </c>
+      <c r="K14" s="54">
+        <f>1.05*J14</f>
+        <v>6796.7854500000003</v>
+      </c>
+      <c r="L14" s="54">
+        <f>1.029*K14</f>
+        <v>6993.8922280500001</v>
+      </c>
+      <c r="M14" s="54">
+        <f>1.001*L14</f>
+        <v>7000.886120278049</v>
+      </c>
+      <c r="N14" s="54">
+        <f>1.034*M14</f>
+        <v>7238.9162483675027</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="E16" s="42">
+        <v>-108700</v>
+      </c>
+      <c r="F16" s="43">
+        <v>-38971</v>
+      </c>
+      <c r="G16" s="43">
+        <v>-2096</v>
+      </c>
+      <c r="H16" s="43">
+        <v>8533</v>
+      </c>
+      <c r="I16" s="43">
+        <v>-87129</v>
+      </c>
+      <c r="J16" s="51">
+        <f>-0.197*I16+I16</f>
+        <v>-69964.587</v>
+      </c>
+      <c r="K16" s="52">
+        <f>1.05*J16</f>
+        <v>-73462.816350000008</v>
+      </c>
+      <c r="L16" s="52">
+        <f t="shared" ref="L16:N16" si="2">1.05*K16</f>
+        <v>-77135.957167500019</v>
+      </c>
+      <c r="M16" s="52">
+        <f t="shared" si="2"/>
+        <v>-80992.755025875027</v>
+      </c>
+      <c r="N16" s="52">
+        <f t="shared" si="2"/>
+        <v>-85042.392777168789</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4236,4 +5487,597 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F400E3-9F48-4E46-8AFE-5EFCB118D169}">
+  <dimension ref="B2:O45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="I5" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0</v>
+      </c>
+      <c r="K5" s="58">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58">
+        <v>2</v>
+      </c>
+      <c r="M5" s="58">
+        <v>3</v>
+      </c>
+      <c r="N5" s="58">
+        <v>4</v>
+      </c>
+      <c r="O5" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="53">
+        <f>'Street Estimates'!I6</f>
+        <v>27044</v>
+      </c>
+      <c r="K6" s="54">
+        <f>'Street Estimates'!J8</f>
+        <v>17259</v>
+      </c>
+      <c r="L6" s="54">
+        <f>'Street Estimates'!K8</f>
+        <v>17983</v>
+      </c>
+      <c r="M6" s="54">
+        <f>'Street Estimates'!L8</f>
+        <v>20349</v>
+      </c>
+      <c r="N6" s="54">
+        <f>'Street Estimates'!M8</f>
+        <v>19969</v>
+      </c>
+      <c r="O6" s="54">
+        <f>'Street Estimates'!N8</f>
+        <v>20653</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="53">
+        <f>-'Street Estimates'!I10</f>
+        <v>-5409</v>
+      </c>
+      <c r="K7" s="54">
+        <f>-'Street Estimates'!J10</f>
+        <v>-3796.98</v>
+      </c>
+      <c r="L7" s="54">
+        <f>-'Street Estimates'!K10</f>
+        <v>-3956.26</v>
+      </c>
+      <c r="M7" s="54">
+        <f>-'Street Estimates'!L10</f>
+        <v>-4476.78</v>
+      </c>
+      <c r="N7" s="54">
+        <f>-'Street Estimates'!M10</f>
+        <v>-4393.18</v>
+      </c>
+      <c r="O7" s="54">
+        <f>-'Street Estimates'!N10</f>
+        <v>-4543.66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="73">
+        <v>-0.02</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="53">
+        <f>'Street Estimates'!I11</f>
+        <v>2015</v>
+      </c>
+      <c r="K8" s="54">
+        <f>'Street Estimates'!J11</f>
+        <v>1920</v>
+      </c>
+      <c r="L8" s="54">
+        <f>'Street Estimates'!K11</f>
+        <v>1939.2</v>
+      </c>
+      <c r="M8" s="54">
+        <f>'Street Estimates'!L11</f>
+        <v>1958.5920000000001</v>
+      </c>
+      <c r="N8" s="54">
+        <f>'Street Estimates'!M11</f>
+        <v>1978.1779200000001</v>
+      </c>
+      <c r="O8" s="54">
+        <f>'Street Estimates'!N11</f>
+        <v>1997.9596992000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="20">
+        <v>27.93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="53">
+        <f>-'Street Estimates'!I12</f>
+        <v>-4667</v>
+      </c>
+      <c r="K9" s="54">
+        <f>-'Street Estimates'!J14</f>
+        <v>-6473.1289999999999</v>
+      </c>
+      <c r="L9" s="54">
+        <f>-'Street Estimates'!K14</f>
+        <v>-6796.7854500000003</v>
+      </c>
+      <c r="M9" s="54">
+        <f>-'Street Estimates'!L14</f>
+        <v>-6993.8922280500001</v>
+      </c>
+      <c r="N9" s="54">
+        <f>-'Street Estimates'!M14</f>
+        <v>-7000.886120278049</v>
+      </c>
+      <c r="O9" s="54">
+        <f>-'Street Estimates'!N14</f>
+        <v>-7238.9162483675027</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="73">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="53">
+        <f>-'Street Estimates'!I16</f>
+        <v>87129</v>
+      </c>
+      <c r="K10" s="54">
+        <f>-'Street Estimates'!J16</f>
+        <v>69964.587</v>
+      </c>
+      <c r="L10" s="54">
+        <f>-'Street Estimates'!K16</f>
+        <v>73462.816350000008</v>
+      </c>
+      <c r="M10" s="54">
+        <f>-'Street Estimates'!L16</f>
+        <v>77135.957167500019</v>
+      </c>
+      <c r="N10" s="54">
+        <f>-'Street Estimates'!M16</f>
+        <v>80992.755025875027</v>
+      </c>
+      <c r="O10" s="54">
+        <f>-'Street Estimates'!N16</f>
+        <v>85042.392777168789</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="74">
+        <v>0.22</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="55">
+        <f>SUM(J6:J10)</f>
+        <v>106112</v>
+      </c>
+      <c r="K11" s="56">
+        <f>SUM(K6:K10)</f>
+        <v>78873.478000000003</v>
+      </c>
+      <c r="L11" s="56">
+        <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
+        <v>82631.970900000015</v>
+      </c>
+      <c r="M11" s="56">
+        <f t="shared" si="0"/>
+        <v>87972.876939450012</v>
+      </c>
+      <c r="N11" s="56">
+        <f t="shared" si="0"/>
+        <v>91545.866825596982</v>
+      </c>
+      <c r="O11" s="56">
+        <f t="shared" si="0"/>
+        <v>95910.776228001283</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="73">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="75">
+        <v>99233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="75">
+        <v>586200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="63">
+        <f>G12+G14*(G15-G12)</f>
+        <v>8.6418999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="64">
+        <f>G17/SUM(G16:G17)</f>
+        <v>0.85522582075855702</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="64">
+        <f>G16/SUM(G16:G17)</f>
+        <v>0.14477417924144301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67">
+        <f>G22*G20+G21*G10*(1-G11)</f>
+        <v>4.3196742244683291E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="54">
+        <f>O6+O8</f>
+        <v>22650.959699200001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="54">
+        <f>G26*G9</f>
+        <v>632641.30439865601</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="70">
+        <f>O11*(1+G8)/(G23-G8)</f>
+        <v>1487300.7272989424</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="54">
+        <f>AVERAGE(G27:G28)</f>
+        <v>1059971.0158487991</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49">
+        <v>1</v>
+      </c>
+      <c r="H31" s="49">
+        <v>2</v>
+      </c>
+      <c r="I31" s="49">
+        <v>3</v>
+      </c>
+      <c r="J31" s="49">
+        <v>4</v>
+      </c>
+      <c r="K31" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="69">
+        <f>1/(1+$G$23)^K5</f>
+        <v>0.95859195059243063</v>
+      </c>
+      <c r="H32" s="69">
+        <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
+        <v>0.91889852774060088</v>
+      </c>
+      <c r="I32" s="69">
+        <f t="shared" si="1"/>
+        <v>0.88084873210337533</v>
+      </c>
+      <c r="J32" s="69">
+        <f t="shared" si="1"/>
+        <v>0.84437450428384386</v>
+      </c>
+      <c r="K32" s="69">
+        <f t="shared" si="1"/>
+        <v>0.80941060309196666</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="54">
+        <f>K11*G32</f>
+        <v>75607.481126029161</v>
+      </c>
+      <c r="H33" s="54">
+        <f t="shared" ref="H33:K33" si="2">L11*H32</f>
+        <v>75930.39640431419</v>
+      </c>
+      <c r="I33" s="54">
+        <f t="shared" si="2"/>
+        <v>77490.797111600812</v>
+      </c>
+      <c r="J33" s="54">
+        <f t="shared" si="2"/>
+        <v>77298.995920098241</v>
+      </c>
+      <c r="K33" s="54">
+        <f t="shared" si="2"/>
+        <v>77631.199229725171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54">
+        <f>K32*G29</f>
+        <v>857951.77919818112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="54">
+        <f>SUM(G33:K34)</f>
+        <v>1241910.6489899487</v>
+      </c>
+      <c r="H35" s="54"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="75">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="75">
+        <v>302300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="76">
+        <v>263500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="72">
+        <f>F35+F38-F40-F41</f>
+        <v>1716110.6489899484</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="76">
+        <v>325420</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="68">
+        <f>F42/F44</f>
+        <v>5.2735254409377061</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF751B-3DE3-46A4-BB60-9A147CDCDC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BB31D-FCAF-4F3A-B410-D6D9085E523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
@@ -308,7 +308,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -541,6 +541,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,20 +567,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3988,20 +3988,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="59" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="59" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
@@ -5493,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F400E3-9F48-4E46-8AFE-5EFCB118D169}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,14 +5519,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="I5" s="49" t="s">
         <v>63</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="69">
         <v>-0.02</v>
       </c>
       <c r="I8" t="s">
@@ -5689,7 +5689,7 @@
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
@@ -5724,7 +5724,7 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="70">
         <v>0.22</v>
       </c>
       <c r="I11" s="48" t="s">
@@ -5759,7 +5759,7 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="69">
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="69">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="71">
         <v>99233</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="71">
         <v>586200</v>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="59">
         <f>G12+G14*(G15-G12)</f>
         <v>8.6418999999999996E-2</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="60">
         <f>G17/SUM(G16:G17)</f>
         <v>0.85522582075855702</v>
       </c>
@@ -5830,20 +5830,20 @@
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="60">
         <f>G16/SUM(G16:G17)</f>
         <v>0.14477417924144301</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>4.3196742244683291E-2</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="66">
         <f>O11*(1+G8)/(G23-G8)</f>
         <v>1487300.7272989424</v>
       </c>
@@ -5929,23 +5929,23 @@
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32" s="65">
         <f>1/(1+$G$23)^K5</f>
         <v>0.95859195059243063</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="65">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
         <v>0.91889852774060088</v>
       </c>
-      <c r="I32" s="69">
+      <c r="I32" s="65">
         <f t="shared" si="1"/>
         <v>0.88084873210337533</v>
       </c>
-      <c r="J32" s="69">
+      <c r="J32" s="65">
         <f t="shared" si="1"/>
         <v>0.84437450428384386</v>
       </c>
-      <c r="K32" s="69">
+      <c r="K32" s="65">
         <f t="shared" si="1"/>
         <v>0.80941060309196666</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="75">
+      <c r="F38" s="71">
         <v>1040000</v>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="75">
+      <c r="F40" s="71">
         <v>302300</v>
       </c>
     </row>
@@ -6040,15 +6040,15 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="76">
+      <c r="F41" s="72">
         <v>263500</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="68">
         <f>F35+F38-F40-F41</f>
         <v>1716110.6489899484</v>
       </c>
@@ -6060,17 +6060,17 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="76">
-        <v>325420</v>
+      <c r="F44" s="72">
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="68">
+      <c r="F45" s="64">
         <f>F42/F44</f>
-        <v>5.2735254409377061</v>
+        <v>5280.3404584306109</v>
       </c>
     </row>
   </sheetData>

--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BB31D-FCAF-4F3A-B410-D6D9085E523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832F30B-371A-41CB-8A2A-5AB73AA0E3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
     <sheet name="Street Estimates" sheetId="2" r:id="rId2"/>
-    <sheet name="DCF Model" sheetId="3" r:id="rId3"/>
+    <sheet name="DCF Model (discarded)" sheetId="3" r:id="rId3"/>
+    <sheet name="DDM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3964,7 +3965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002A1BE5-3274-4D75-A10D-F4A6E7BE869D}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
@@ -5493,7 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F400E3-9F48-4E46-8AFE-5EFCB118D169}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -6080,4 +6081,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8E6A5C-304A-4E05-9218-C06B185D474E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832F30B-371A-41CB-8A2A-5AB73AA0E3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD6FE4-3BD8-44EA-8E4D-73BEE99736D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>Ticker: GS</t>
   </si>
@@ -190,9 +190,6 @@
     <t>NWC:</t>
   </si>
   <si>
-    <t>Model:</t>
-  </si>
-  <si>
     <t>Assumptions:</t>
   </si>
   <si>
@@ -299,19 +296,39 @@
   </si>
   <si>
     <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Current DPS</t>
+  </si>
+  <si>
+    <t>Dividend Discount Model:</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Model:</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>PV of Dividend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +358,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -568,6 +598,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3965,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002A1BE5-3274-4D75-A10D-F4A6E7BE869D}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
@@ -5494,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F400E3-9F48-4E46-8AFE-5EFCB118D169}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,7 +5555,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="76" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
@@ -5529,7 +5563,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
       <c r="I5" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="57">
         <v>0</v>
@@ -5552,7 +5586,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="53">
         <f>'Street Estimates'!I6</f>
@@ -5581,7 +5615,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5589,7 +5623,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="53">
         <f>-'Street Estimates'!I10</f>
@@ -5618,13 +5652,13 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="69">
         <v>-0.02</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="53">
         <f>'Street Estimates'!I11</f>
@@ -5653,7 +5687,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="20">
         <v>27.93</v>
@@ -5688,13 +5722,13 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="53">
         <f>-'Street Estimates'!I16</f>
@@ -5723,13 +5757,13 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="70">
         <v>0.22</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="55">
         <f>SUM(J6:J10)</f>
@@ -5758,7 +5792,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="69">
         <v>2.7900000000000001E-2</v>
@@ -5769,7 +5803,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="20">
         <v>1.39</v>
@@ -5777,7 +5811,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="69">
         <v>7.0000000000000007E-2</v>
@@ -5785,7 +5819,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="71">
         <v>99233</v>
@@ -5793,7 +5827,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="71">
         <v>586200</v>
@@ -5801,7 +5835,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -5811,7 +5845,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="59">
         <f>G12+G14*(G15-G12)</f>
@@ -5820,7 +5854,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="60">
         <f>G17/SUM(G16:G17)</f>
@@ -5829,7 +5863,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="60">
         <f>G16/SUM(G16:G17)</f>
@@ -5838,7 +5872,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
@@ -5851,7 +5885,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -5861,7 +5895,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="54">
         <f>O6+O8</f>
@@ -5870,7 +5904,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="54">
         <f>G26*G9</f>
@@ -5879,7 +5913,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="66">
         <f>O11*(1+G8)/(G23-G8)</f>
@@ -5888,7 +5922,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -5904,7 +5938,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -5928,7 +5962,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="65">
         <f>1/(1+$G$23)^K5</f>
@@ -5953,7 +5987,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="54">
         <f>K11*G32</f>
@@ -5978,7 +6012,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5995,7 +6029,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="54">
         <f>SUM(G33:K34)</f>
@@ -6005,7 +6039,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
@@ -6014,7 +6048,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="71">
         <v>1040000</v>
@@ -6022,13 +6056,13 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="71">
         <v>302300</v>
@@ -6036,7 +6070,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6047,7 +6081,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="68">
         <f>F35+F38-F40-F41</f>
@@ -6056,7 +6090,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6067,7 +6101,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="64">
         <f>F42/F44</f>
@@ -6085,14 +6119,455 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8E6A5C-304A-4E05-9218-C06B185D474E}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="I5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0</v>
+      </c>
+      <c r="K5" s="58">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58">
+        <v>2</v>
+      </c>
+      <c r="M5" s="58">
+        <v>3</v>
+      </c>
+      <c r="N5" s="58">
+        <v>4</v>
+      </c>
+      <c r="O5" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="53">
+        <f>'Street Estimates'!I6</f>
+        <v>27044</v>
+      </c>
+      <c r="K6" s="54">
+        <f>'Street Estimates'!J8</f>
+        <v>17259</v>
+      </c>
+      <c r="L6" s="54">
+        <f>'Street Estimates'!K8</f>
+        <v>17983</v>
+      </c>
+      <c r="M6" s="54">
+        <f>'Street Estimates'!L8</f>
+        <v>20349</v>
+      </c>
+      <c r="N6" s="54">
+        <f>'Street Estimates'!M8</f>
+        <v>19969</v>
+      </c>
+      <c r="O6" s="54">
+        <f>'Street Estimates'!N8</f>
+        <v>20653</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="53">
+        <f>-'Street Estimates'!I10</f>
+        <v>-5409</v>
+      </c>
+      <c r="K7" s="54">
+        <f>-'Street Estimates'!J10</f>
+        <v>-3796.98</v>
+      </c>
+      <c r="L7" s="54">
+        <f>-'Street Estimates'!K10</f>
+        <v>-3956.26</v>
+      </c>
+      <c r="M7" s="54">
+        <f>-'Street Estimates'!L10</f>
+        <v>-4476.78</v>
+      </c>
+      <c r="N7" s="54">
+        <f>-'Street Estimates'!M10</f>
+        <v>-4393.18</v>
+      </c>
+      <c r="O7" s="54">
+        <f>-'Street Estimates'!N10</f>
+        <v>-4543.66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="69">
+        <v>-0.02</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="53">
+        <f>'Street Estimates'!I11</f>
+        <v>2015</v>
+      </c>
+      <c r="K8" s="54">
+        <f>'Street Estimates'!J11</f>
+        <v>1920</v>
+      </c>
+      <c r="L8" s="54">
+        <f>'Street Estimates'!K11</f>
+        <v>1939.2</v>
+      </c>
+      <c r="M8" s="54">
+        <f>'Street Estimates'!L11</f>
+        <v>1958.5920000000001</v>
+      </c>
+      <c r="N8" s="54">
+        <f>'Street Estimates'!M11</f>
+        <v>1978.1779200000001</v>
+      </c>
+      <c r="O8" s="54">
+        <f>'Street Estimates'!N11</f>
+        <v>1997.9596992000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="20">
+        <v>27.93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="53">
+        <f>-'Street Estimates'!I12</f>
+        <v>-4667</v>
+      </c>
+      <c r="K9" s="54">
+        <f>-'Street Estimates'!J14</f>
+        <v>-6473.1289999999999</v>
+      </c>
+      <c r="L9" s="54">
+        <f>-'Street Estimates'!K14</f>
+        <v>-6796.7854500000003</v>
+      </c>
+      <c r="M9" s="54">
+        <f>-'Street Estimates'!L14</f>
+        <v>-6993.8922280500001</v>
+      </c>
+      <c r="N9" s="54">
+        <f>-'Street Estimates'!M14</f>
+        <v>-7000.886120278049</v>
+      </c>
+      <c r="O9" s="54">
+        <f>-'Street Estimates'!N14</f>
+        <v>-7238.9162483675027</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="69">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="53">
+        <f>-'Street Estimates'!I16</f>
+        <v>87129</v>
+      </c>
+      <c r="K10" s="54">
+        <f>-'Street Estimates'!J16</f>
+        <v>69964.587</v>
+      </c>
+      <c r="L10" s="54">
+        <f>-'Street Estimates'!K16</f>
+        <v>73462.816350000008</v>
+      </c>
+      <c r="M10" s="54">
+        <f>-'Street Estimates'!L16</f>
+        <v>77135.957167500019</v>
+      </c>
+      <c r="N10" s="54">
+        <f>-'Street Estimates'!M16</f>
+        <v>80992.755025875027</v>
+      </c>
+      <c r="O10" s="54">
+        <f>-'Street Estimates'!N16</f>
+        <v>85042.392777168789</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="70">
+        <v>0.22</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="55">
+        <f>SUM(J6:J10)</f>
+        <v>106112</v>
+      </c>
+      <c r="K11" s="56">
+        <f>SUM(K6:K10)</f>
+        <v>78873.478000000003</v>
+      </c>
+      <c r="L11" s="56">
+        <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
+        <v>82631.970900000015</v>
+      </c>
+      <c r="M11" s="56">
+        <f t="shared" si="0"/>
+        <v>87972.876939450012</v>
+      </c>
+      <c r="N11" s="56">
+        <f t="shared" si="0"/>
+        <v>91545.866825596982</v>
+      </c>
+      <c r="O11" s="56">
+        <f t="shared" si="0"/>
+        <v>95910.776228001283</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="69">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="71">
+        <v>99233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="71">
+        <v>586200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="59">
+        <f>G12+G14*(G15-G12)</f>
+        <v>8.6418999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="60">
+        <f>G17/SUM(G16:G17)</f>
+        <v>0.85522582075855702</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="60">
+        <f>G16/SUM(G16:G17)</f>
+        <v>0.14477417924144301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63">
+        <f>G22*G20+G21*G10*(1-G11)</f>
+        <v>4.3196742244683291E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="59">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78">
+        <v>0</v>
+      </c>
+      <c r="E29" s="78">
+        <v>1</v>
+      </c>
+      <c r="F29" s="78">
+        <v>2</v>
+      </c>
+      <c r="G29" s="78">
+        <v>3</v>
+      </c>
+      <c r="H29" s="78">
+        <v>4</v>
+      </c>
+      <c r="I29" s="78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="80">
+        <v>8</v>
+      </c>
+      <c r="E30" s="80">
+        <v>8</v>
+      </c>
+      <c r="F30" s="79">
+        <f>E30*1.02</f>
+        <v>8.16</v>
+      </c>
+      <c r="G30" s="79">
+        <f t="shared" ref="G30:I30" si="1">F30*1.02</f>
+        <v>8.3231999999999999</v>
+      </c>
+      <c r="H30" s="79">
+        <f t="shared" si="1"/>
+        <v>8.4896639999999994</v>
+      </c>
+      <c r="I30" s="79">
+        <f t="shared" si="1"/>
+        <v>8.6594572799999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD6FE4-3BD8-44EA-8E4D-73BEE99736D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B05BCD0-7BF4-4276-9D73-8AF261A4EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Ticker: GS</t>
   </si>
   <si>
-    <t xml:space="preserve">Current Price: </t>
-  </si>
-  <si>
     <t>(in Millions)</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>PV of Dividend</t>
+  </si>
+  <si>
+    <t>Current Price: $349.27</t>
   </si>
 </sst>
 </file>
@@ -586,6 +586,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,10 +602,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3999,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002A1BE5-3274-4D75-A10D-F4A6E7BE869D}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,24 +4019,24 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="17">
         <v>32073</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="17">
         <v>-19188</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="17">
         <v>-20941</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="17">
         <v>-6846</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="17">
         <v>1152</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="17">
         <v>1812</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="17">
         <v>-26981</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="17">
         <v>2870</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="17">
         <v>-3628</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="17">
         <v>-2383</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="17">
         <v>-20810</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="17">
         <v>65748</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="17">
         <v>-35711</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="17">
         <v>-8995</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="17">
         <v>15933</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5109,7 +5109,7 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,24 +5136,24 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="54"/>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="54"/>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="54"/>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="54"/>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54"/>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5548,22 +5548,22 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="I5" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="57">
         <v>0</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="53">
         <f>'Street Estimates'!I6</f>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5623,7 +5623,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="53">
         <f>-'Street Estimates'!I10</f>
@@ -5652,13 +5652,13 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="69">
         <v>-0.02</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="53">
         <f>'Street Estimates'!I11</f>
@@ -5687,13 +5687,13 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="20">
         <v>27.93</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="53">
         <f>-'Street Estimates'!I12</f>
@@ -5722,13 +5722,13 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="53">
         <f>-'Street Estimates'!I16</f>
@@ -5757,13 +5757,13 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="70">
         <v>0.22</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="55">
         <f>SUM(J6:J10)</f>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="69">
         <v>2.7900000000000001E-2</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="20">
         <v>1.39</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="69">
         <v>7.0000000000000007E-2</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="71">
         <v>99233</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="71">
         <v>586200</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="59">
         <f>G12+G14*(G15-G12)</f>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="60">
         <f>G17/SUM(G16:G17)</f>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="60">
         <f>G16/SUM(G16:G17)</f>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="54">
         <f>O6+O8</f>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="54">
         <f>G26*G9</f>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="66">
         <f>O11*(1+G8)/(G23-G8)</f>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="65">
         <f>1/(1+$G$23)^K5</f>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="54">
         <f>K11*G32</f>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="54">
         <f>SUM(G33:K34)</f>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38" s="71">
         <v>1040000</v>
@@ -6056,13 +6056,13 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="71">
         <v>302300</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="68">
         <f>F35+F38-F40-F41</f>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" s="64">
         <f>F42/F44</f>
@@ -6121,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8E6A5C-304A-4E05-9218-C06B185D474E}">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6136,22 +6136,22 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="I5" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="57">
         <v>0</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="53">
         <f>'Street Estimates'!I6</f>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6211,7 +6211,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="53">
         <f>-'Street Estimates'!I10</f>
@@ -6240,13 +6240,13 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="69">
         <v>-0.02</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="53">
         <f>'Street Estimates'!I11</f>
@@ -6275,13 +6275,13 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="20">
         <v>27.93</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="53">
         <f>-'Street Estimates'!I12</f>
@@ -6310,13 +6310,13 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="69">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="53">
         <f>-'Street Estimates'!I16</f>
@@ -6345,13 +6345,13 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="70">
         <v>0.22</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="55">
         <f>SUM(J6:J10)</f>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="69">
         <v>2.7900000000000001E-2</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="20">
         <v>1.39</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="69">
         <v>7.0000000000000007E-2</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="71">
         <v>99233</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="71">
         <v>586200</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="59">
         <f>G12+G14*(G15-G12)</f>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="60">
         <f>G17/SUM(G16:G17)</f>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="60">
         <f>G16/SUM(G16:G17)</f>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
@@ -6472,84 +6472,84 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="B25" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79">
+        <v>86</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="59">
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78">
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74">
         <v>0</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="74">
         <v>1</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="74">
         <v>2</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="74">
         <v>3</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="74">
         <v>4</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="74">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="80">
+        <v>89</v>
+      </c>
+      <c r="D30" s="76">
         <v>8</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="76">
         <v>8</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="75">
         <f>E30*1.02</f>
         <v>8.16</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="75">
         <f t="shared" ref="G30:I30" si="1">F30*1.02</f>
         <v>8.3231999999999999</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="75">
         <f t="shared" si="1"/>
         <v>8.4896639999999994</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="75">
         <f t="shared" si="1"/>
         <v>8.6594572799999998</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B05BCD0-7BF4-4276-9D73-8AF261A4EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8AC5CC-C884-45BC-BAEA-94278A9E005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="2" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="DCF Model (discarded)" sheetId="3" r:id="rId3"/>
     <sheet name="DDM" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3700,6 +3703,29 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Historical Data and Projections"/>
+      <sheetName val="Street Estimates"/>
+      <sheetName val="DCF Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="E6">
+            <v>100904</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3999,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002A1BE5-3274-4D75-A10D-F4A6E7BE869D}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -5109,7 +5135,7 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F400E3-9F48-4E46-8AFE-5EFCB118D169}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dow 30/Goldman/Goldman.xlsx
+++ b/Dow 30/Goldman/Goldman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Goldman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8AC5CC-C884-45BC-BAEA-94278A9E005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EFC41-133D-4DA9-9CC4-9CA7FDF5A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="2" xr2:uid="{A3E34BEC-3060-4EA5-9DCA-0D4090F72745}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="DCF Model (discarded)" sheetId="3" r:id="rId3"/>
     <sheet name="DDM" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3703,29 +3700,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Historical Data and Projections"/>
-      <sheetName val="Street Estimates"/>
-      <sheetName val="DCF Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="E6">
-            <v>100904</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5554,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F400E3-9F48-4E46-8AFE-5EFCB118D169}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
